--- a/Code/Results/Cases/Case_0_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.475192766181348</v>
+        <v>4.924061450649578</v>
       </c>
       <c r="D2">
-        <v>1.774925926132669</v>
+        <v>3.326762387033757</v>
       </c>
       <c r="E2">
-        <v>4.02900544520798</v>
+        <v>8.751209438147498</v>
       </c>
       <c r="F2">
-        <v>32.09744877603748</v>
+        <v>24.95906604448387</v>
       </c>
       <c r="G2">
-        <v>1.991566076687529</v>
+        <v>3.581422332644772</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>31.63009554139856</v>
+        <v>20.87700697165946</v>
       </c>
       <c r="N2">
-        <v>19.133307456536</v>
+        <v>17.06458520748026</v>
       </c>
       <c r="O2">
-        <v>25.35243426204725</v>
+        <v>21.47428703780196</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.939786977735254</v>
+        <v>4.749842243697343</v>
       </c>
       <c r="D3">
-        <v>1.681227234937155</v>
+        <v>3.34743214348764</v>
       </c>
       <c r="E3">
-        <v>4.387723694230209</v>
+        <v>8.884547176696968</v>
       </c>
       <c r="F3">
-        <v>29.78246958919196</v>
+        <v>24.39901416162939</v>
       </c>
       <c r="G3">
-        <v>2.001841676328254</v>
+        <v>3.585140863119495</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.51083864895206</v>
+        <v>20.04147347672152</v>
       </c>
       <c r="N3">
-        <v>18.32216605283654</v>
+        <v>16.79203666852943</v>
       </c>
       <c r="O3">
-        <v>23.4907888204731</v>
+        <v>21.1161975883337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.594680635963925</v>
+        <v>4.641246364515577</v>
       </c>
       <c r="D4">
-        <v>1.64779480365196</v>
+        <v>3.360782572633803</v>
       </c>
       <c r="E4">
-        <v>4.616590429764447</v>
+        <v>8.970646275313241</v>
       </c>
       <c r="F4">
-        <v>28.38838314584456</v>
+        <v>24.05853452021526</v>
       </c>
       <c r="G4">
-        <v>2.008292661735954</v>
+        <v>3.587542786588631</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.13716507177023</v>
+        <v>19.51201856280617</v>
       </c>
       <c r="N4">
-        <v>17.80885833809668</v>
+        <v>16.6245028623683</v>
       </c>
       <c r="O4">
-        <v>22.45889597500845</v>
+        <v>20.90153581025836</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.449860609914766</v>
+        <v>4.596663196368104</v>
       </c>
       <c r="D5">
-        <v>1.661582862972025</v>
+        <v>3.366388647367446</v>
       </c>
       <c r="E5">
-        <v>4.711846807450584</v>
+        <v>9.006797830183736</v>
       </c>
       <c r="F5">
-        <v>27.82336939588144</v>
+        <v>23.92086780727119</v>
       </c>
       <c r="G5">
-        <v>2.010959758964694</v>
+        <v>3.588551561623907</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.55899608318947</v>
+        <v>19.29243185574522</v>
       </c>
       <c r="N5">
-        <v>17.59611103288945</v>
+        <v>16.55626744750818</v>
       </c>
       <c r="O5">
-        <v>22.03581932440695</v>
+        <v>20.81549168991383</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.425558503364615</v>
+        <v>4.58924273082524</v>
       </c>
       <c r="D6">
-        <v>1.66390318840879</v>
+        <v>3.3673295359432</v>
       </c>
       <c r="E6">
-        <v>4.72778062314582</v>
+        <v>9.012865181796972</v>
       </c>
       <c r="F6">
-        <v>27.72891676882962</v>
+        <v>23.89808037637872</v>
       </c>
       <c r="G6">
-        <v>2.011405012639849</v>
+        <v>3.588720881570408</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.46187650039019</v>
+        <v>19.25574791891564</v>
       </c>
       <c r="N6">
-        <v>17.56057745553716</v>
+        <v>16.5449416363036</v>
       </c>
       <c r="O6">
-        <v>21.96518036389104</v>
+        <v>20.80129417244232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.592744584270704</v>
+        <v>4.640646325130064</v>
       </c>
       <c r="D7">
-        <v>1.647978649831701</v>
+        <v>3.360857507455952</v>
       </c>
       <c r="E7">
-        <v>4.617867203583786</v>
+        <v>8.971129511177223</v>
       </c>
       <c r="F7">
-        <v>28.38080575207493</v>
+        <v>24.05667321719629</v>
       </c>
       <c r="G7">
-        <v>2.008328472870339</v>
+        <v>3.587556269775494</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.12944233765048</v>
+        <v>19.50907221858401</v>
       </c>
       <c r="N7">
-        <v>17.8060032270905</v>
+        <v>16.62358235925451</v>
       </c>
       <c r="O7">
-        <v>22.453216375837</v>
+        <v>20.90036942964564</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.293937087871309</v>
+        <v>4.864373286270354</v>
       </c>
       <c r="D8">
-        <v>1.742696447025457</v>
+        <v>3.333752470547201</v>
       </c>
       <c r="E8">
-        <v>4.150772065178185</v>
+        <v>8.796307698749843</v>
       </c>
       <c r="F8">
-        <v>31.31122651510835</v>
+        <v>24.76539151583983</v>
       </c>
       <c r="G8">
-        <v>1.99508134160674</v>
+        <v>3.582679909309753</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30.9143025838337</v>
+        <v>20.59249661801706</v>
       </c>
       <c r="N8">
-        <v>18.85694286078</v>
+        <v>16.97069899346909</v>
       </c>
       <c r="O8">
-        <v>24.72048490641571</v>
+        <v>21.34981182759828</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.542595547494113</v>
+        <v>5.287068537060975</v>
       </c>
       <c r="D9">
-        <v>1.975419276825331</v>
+        <v>3.285833080627553</v>
       </c>
       <c r="E9">
-        <v>3.317240508972631</v>
+        <v>8.486952832591786</v>
       </c>
       <c r="F9">
-        <v>36.77439890761091</v>
+        <v>26.17229399228508</v>
       </c>
       <c r="G9">
-        <v>1.970096785990722</v>
+        <v>3.574054171520328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.80933354289519</v>
+        <v>22.57515156245204</v>
       </c>
       <c r="N9">
-        <v>20.7868494340946</v>
+        <v>17.64632261078205</v>
       </c>
       <c r="O9">
-        <v>29.10703460447567</v>
+        <v>22.2669624081239</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.388228360623598</v>
+        <v>5.584108049579077</v>
       </c>
       <c r="D10">
-        <v>2.147556340358862</v>
+        <v>3.253823091448774</v>
       </c>
       <c r="E10">
-        <v>3.655840767796496</v>
+        <v>8.279962016169357</v>
       </c>
       <c r="F10">
-        <v>40.53084681123119</v>
+        <v>27.20366595108185</v>
       </c>
       <c r="G10">
-        <v>1.952140093982186</v>
+        <v>3.568280541649275</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.0743809165661</v>
+        <v>23.93209953186527</v>
       </c>
       <c r="N10">
-        <v>22.1141356110107</v>
+        <v>18.13496054904957</v>
       </c>
       <c r="O10">
-        <v>32.11928593657958</v>
+        <v>22.95518143215308</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.758669688034905</v>
+        <v>5.715643859614623</v>
       </c>
       <c r="D11">
-        <v>2.2267962268273</v>
+        <v>3.239956864352696</v>
       </c>
       <c r="E11">
-        <v>3.920850262672702</v>
+        <v>8.190183065988844</v>
       </c>
       <c r="F11">
-        <v>42.18948306170255</v>
+        <v>27.66985505873715</v>
       </c>
       <c r="G11">
-        <v>1.944004549197853</v>
+        <v>3.565774789600365</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.49132942343105</v>
+        <v>24.52555840626952</v>
       </c>
       <c r="N11">
-        <v>22.69663248351683</v>
+        <v>18.35463967436858</v>
       </c>
       <c r="O11">
-        <v>33.44892548449561</v>
+        <v>23.26983916788005</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.897022707752534</v>
+        <v>5.764890180093126</v>
       </c>
       <c r="D12">
-        <v>2.25700484341264</v>
+        <v>3.234806312522133</v>
       </c>
       <c r="E12">
-        <v>4.023149192527034</v>
+        <v>8.156815276863611</v>
       </c>
       <c r="F12">
-        <v>42.81092462865202</v>
+        <v>27.84576475718588</v>
       </c>
       <c r="G12">
-        <v>1.94092342072724</v>
+        <v>3.564843161413361</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.01840045791212</v>
+        <v>24.74671023355439</v>
       </c>
       <c r="N12">
-        <v>22.91404630806097</v>
+        <v>18.43737818482674</v>
       </c>
       <c r="O12">
-        <v>33.94707930913795</v>
+        <v>23.38909365455001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.867309410157128</v>
+        <v>5.754309856566763</v>
       </c>
       <c r="D13">
-        <v>2.250488681736176</v>
+        <v>3.23591111040286</v>
       </c>
       <c r="E13">
-        <v>4.001030373931118</v>
+        <v>8.163973634442304</v>
       </c>
       <c r="F13">
-        <v>42.67737160372739</v>
+        <v>27.80791029400731</v>
       </c>
       <c r="G13">
-        <v>1.941587102931869</v>
+        <v>3.56504303896632</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.90530291892232</v>
+        <v>24.69924256220701</v>
       </c>
       <c r="N13">
-        <v>22.8673645018451</v>
+        <v>18.41958009561763</v>
       </c>
       <c r="O13">
-        <v>33.84002230151743</v>
+        <v>23.36340758192678</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.77008989854362</v>
+        <v>5.719706927171397</v>
       </c>
       <c r="D14">
-        <v>2.229277026406731</v>
+        <v>3.239531113553962</v>
       </c>
       <c r="E14">
-        <v>3.929227351933604</v>
+        <v>8.187425263244789</v>
       </c>
       <c r="F14">
-        <v>42.24073905291778</v>
+        <v>27.68434088278017</v>
       </c>
       <c r="G14">
-        <v>1.943751102344462</v>
+        <v>3.56569779899317</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.53488015474712</v>
+        <v>24.54382520607841</v>
       </c>
       <c r="N14">
-        <v>22.71458318674522</v>
+        <v>18.36145603916783</v>
       </c>
       <c r="O14">
-        <v>33.49001305478691</v>
+        <v>23.27964900756531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.710293338877374</v>
+        <v>5.698436949664943</v>
       </c>
       <c r="D15">
-        <v>2.216312813425477</v>
+        <v>3.241761540142583</v>
       </c>
       <c r="E15">
-        <v>3.885499760768016</v>
+        <v>8.20187203589205</v>
       </c>
       <c r="F15">
-        <v>41.97244183411933</v>
+        <v>27.60856390692091</v>
       </c>
       <c r="G15">
-        <v>1.945076401335491</v>
+        <v>3.566101101032035</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.30675931347456</v>
+        <v>24.4481574621794</v>
       </c>
       <c r="N15">
-        <v>22.62058538828634</v>
+        <v>18.32579272121686</v>
       </c>
       <c r="O15">
-        <v>33.27494128325174</v>
+        <v>23.22835383517489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.363742744530034</v>
+        <v>5.575435477523632</v>
       </c>
       <c r="D16">
-        <v>2.142402174154116</v>
+        <v>3.254743298194216</v>
       </c>
       <c r="E16">
-        <v>3.63879396917191</v>
+        <v>8.285917404920358</v>
       </c>
       <c r="F16">
-        <v>40.42148751986352</v>
+        <v>27.17312221486571</v>
       </c>
       <c r="G16">
-        <v>1.952672013668324</v>
+        <v>3.568446717761859</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.98043214409584</v>
+        <v>23.89282266786815</v>
       </c>
       <c r="N16">
-        <v>22.07563021328216</v>
+        <v>18.12054512640285</v>
       </c>
       <c r="O16">
-        <v>32.03161336365581</v>
+        <v>22.93463870080513</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.147580532885458</v>
+        <v>5.499023316266598</v>
       </c>
       <c r="D17">
-        <v>2.097344501836068</v>
+        <v>3.26288547060069</v>
       </c>
       <c r="E17">
-        <v>3.490924243850605</v>
+        <v>8.338598388413713</v>
       </c>
       <c r="F17">
-        <v>39.45754701837942</v>
+        <v>26.90508412570264</v>
       </c>
       <c r="G17">
-        <v>1.957336708469042</v>
+        <v>3.569916513044552</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>38.14949241948654</v>
+        <v>23.54592531744336</v>
       </c>
       <c r="N17">
-        <v>21.73578288407262</v>
+        <v>17.9939110227926</v>
       </c>
       <c r="O17">
-        <v>31.25878839905277</v>
+        <v>22.75476773737103</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.021901141583271</v>
+        <v>5.45473770420876</v>
       </c>
       <c r="D18">
-        <v>2.071511751683977</v>
+        <v>3.267634055026033</v>
       </c>
       <c r="E18">
-        <v>3.407168119586343</v>
+        <v>8.369311591124001</v>
       </c>
       <c r="F18">
-        <v>38.89835004815074</v>
+        <v>26.75064553930326</v>
       </c>
       <c r="G18">
-        <v>1.960023173107475</v>
+        <v>3.570773267990816</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.66510347957991</v>
+        <v>23.34416433241208</v>
       </c>
       <c r="N18">
-        <v>21.53831206611464</v>
+        <v>17.92083351673876</v>
       </c>
       <c r="O18">
-        <v>30.81042003999258</v>
+        <v>22.65146714724971</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.979113126765137</v>
+        <v>5.439687296017383</v>
       </c>
       <c r="D19">
-        <v>2.062777628584513</v>
+        <v>3.269253071662977</v>
       </c>
       <c r="E19">
-        <v>3.379034776541924</v>
+        <v>8.379781422957096</v>
       </c>
       <c r="F19">
-        <v>38.70818158305158</v>
+        <v>26.69831507159816</v>
       </c>
       <c r="G19">
-        <v>1.96093350230883</v>
+        <v>3.571065306271089</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.49997977160355</v>
+        <v>23.27547271417537</v>
       </c>
       <c r="N19">
-        <v>21.47111196261022</v>
+        <v>17.89605168263021</v>
       </c>
       <c r="O19">
-        <v>30.65793346583152</v>
+        <v>22.61652215257937</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.17073010149717</v>
+        <v>5.507192590707076</v>
       </c>
       <c r="D20">
-        <v>2.102131896921095</v>
+        <v>3.262011949391737</v>
       </c>
       <c r="E20">
-        <v>3.50653181053523</v>
+        <v>8.33294772147001</v>
       </c>
       <c r="F20">
-        <v>39.56064935966656</v>
+        <v>26.93364666113877</v>
       </c>
       <c r="G20">
-        <v>1.956839821005828</v>
+        <v>3.569758875132297</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>38.23861311730121</v>
+        <v>23.58308560124723</v>
       </c>
       <c r="N20">
-        <v>21.77216799324933</v>
+        <v>18.00741692543636</v>
       </c>
       <c r="O20">
-        <v>31.34145308533281</v>
+        <v>22.77390005339346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.798696818201751</v>
+        <v>5.729886287031597</v>
       </c>
       <c r="D21">
-        <v>2.235501318944965</v>
+        <v>3.238465106470256</v>
       </c>
       <c r="E21">
-        <v>3.950264679344281</v>
+        <v>8.180519868990237</v>
       </c>
       <c r="F21">
-        <v>42.36916400925143</v>
+        <v>27.7206547080035</v>
       </c>
       <c r="G21">
-        <v>1.943115537865627</v>
+        <v>3.565505012939786</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.64393718759084</v>
+        <v>24.58957326593314</v>
       </c>
       <c r="N21">
-        <v>22.75954536290325</v>
+        <v>18.37854125216744</v>
       </c>
       <c r="O21">
-        <v>33.59296018329505</v>
+        <v>23.30424919899766</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.19795694489192</v>
+        <v>5.872127309625846</v>
       </c>
       <c r="D22">
-        <v>2.323884537527477</v>
+        <v>3.223660604646647</v>
       </c>
       <c r="E22">
-        <v>4.25165777025214</v>
+        <v>8.084568882567913</v>
       </c>
       <c r="F22">
-        <v>44.16627930040777</v>
+        <v>28.23127887105126</v>
       </c>
       <c r="G22">
-        <v>1.934140817762491</v>
+        <v>3.562825338184008</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.16078790917518</v>
+        <v>25.22645927650823</v>
       </c>
       <c r="N22">
-        <v>23.38637409802202</v>
+        <v>18.61844204830768</v>
       </c>
       <c r="O22">
-        <v>35.03354277985882</v>
+        <v>23.65139250205851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.985840110456254</v>
+        <v>5.796526943804531</v>
       </c>
       <c r="D23">
-        <v>2.276575757116782</v>
+        <v>3.231508432570576</v>
       </c>
       <c r="E23">
-        <v>4.089745199234345</v>
+        <v>8.13544410329083</v>
       </c>
       <c r="F23">
-        <v>43.21042497540853</v>
+        <v>27.95915222357322</v>
       </c>
       <c r="G23">
-        <v>1.938933151387509</v>
+        <v>3.564246374570586</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.35614316420361</v>
+        <v>24.8884993883563</v>
       </c>
       <c r="N23">
-        <v>23.05354248970746</v>
+        <v>18.49066872758026</v>
       </c>
       <c r="O23">
-        <v>34.26732091080711</v>
+        <v>23.46610806669791</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.160268566409423</v>
+        <v>5.503500364580911</v>
       </c>
       <c r="D24">
-        <v>2.099967297845559</v>
+        <v>3.26240665797808</v>
       </c>
       <c r="E24">
-        <v>3.499471712993939</v>
+        <v>8.335501060416792</v>
       </c>
       <c r="F24">
-        <v>39.51405245268413</v>
+        <v>26.92073458259719</v>
       </c>
       <c r="G24">
-        <v>1.957064448906187</v>
+        <v>3.569830106624885</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>38.19834245168897</v>
+        <v>23.56629266724369</v>
       </c>
       <c r="N24">
-        <v>21.75572478112593</v>
+        <v>18.00131175420331</v>
       </c>
       <c r="O24">
-        <v>31.30409306601272</v>
+        <v>22.76524998216817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.21781362687428</v>
+        <v>5.174846434913434</v>
       </c>
       <c r="D25">
-        <v>1.912461525428033</v>
+        <v>3.298235770534069</v>
       </c>
       <c r="E25">
-        <v>3.53122995068171</v>
+        <v>8.567070669922046</v>
       </c>
       <c r="F25">
-        <v>35.34328137155958</v>
+        <v>25.79120194233849</v>
       </c>
       <c r="G25">
-        <v>1.976769284557991</v>
+        <v>3.576288138004472</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.54437471108392</v>
+        <v>22.05546454450358</v>
       </c>
       <c r="N25">
-        <v>20.28001741974055</v>
+        <v>17.46458122984708</v>
       </c>
       <c r="O25">
-        <v>27.95882022300525</v>
+        <v>22.01578643946419</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.924061450649578</v>
+        <v>7.475192766181332</v>
       </c>
       <c r="D2">
-        <v>3.326762387033757</v>
+        <v>1.774925926132609</v>
       </c>
       <c r="E2">
-        <v>8.751209438147498</v>
+        <v>4.029005445207985</v>
       </c>
       <c r="F2">
-        <v>24.95906604448387</v>
+        <v>32.09744877603752</v>
       </c>
       <c r="G2">
-        <v>3.581422332644772</v>
+        <v>1.991566076687528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.87700697165946</v>
+        <v>31.63009554139859</v>
       </c>
       <c r="N2">
-        <v>17.06458520748026</v>
+        <v>19.13330745653601</v>
       </c>
       <c r="O2">
-        <v>21.47428703780196</v>
+        <v>25.35243426204726</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749842243697343</v>
+        <v>6.939786977735239</v>
       </c>
       <c r="D3">
-        <v>3.34743214348764</v>
+        <v>1.681227234937027</v>
       </c>
       <c r="E3">
-        <v>8.884547176696968</v>
+        <v>4.387723694230144</v>
       </c>
       <c r="F3">
-        <v>24.39901416162939</v>
+        <v>29.78246958919207</v>
       </c>
       <c r="G3">
-        <v>3.585140863119495</v>
+        <v>2.001841676328253</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.04147347672152</v>
+        <v>29.51083864895213</v>
       </c>
       <c r="N3">
-        <v>16.79203666852943</v>
+        <v>18.32216605283651</v>
       </c>
       <c r="O3">
-        <v>21.1161975883337</v>
+        <v>23.49078882047319</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.641246364515577</v>
+        <v>6.594680635964055</v>
       </c>
       <c r="D4">
-        <v>3.360782572633803</v>
+        <v>1.647794803651968</v>
       </c>
       <c r="E4">
-        <v>8.970646275313241</v>
+        <v>4.616590429764631</v>
       </c>
       <c r="F4">
-        <v>24.05853452021526</v>
+        <v>28.38838314584459</v>
       </c>
       <c r="G4">
-        <v>3.587542786588631</v>
+        <v>2.008292661735954</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.51201856280617</v>
+        <v>28.13716507177027</v>
       </c>
       <c r="N4">
-        <v>16.6245028623683</v>
+        <v>17.80885833809665</v>
       </c>
       <c r="O4">
-        <v>20.90153581025836</v>
+        <v>22.45889597500845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.596663196368104</v>
+        <v>6.449860609914851</v>
       </c>
       <c r="D5">
-        <v>3.366388647367446</v>
+        <v>1.661582862972034</v>
       </c>
       <c r="E5">
-        <v>9.006797830183736</v>
+        <v>4.711846807450716</v>
       </c>
       <c r="F5">
-        <v>23.92086780727119</v>
+        <v>27.82336939588143</v>
       </c>
       <c r="G5">
-        <v>3.588551561623907</v>
+        <v>2.010959758964696</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.29243185574522</v>
+        <v>27.55899608318949</v>
       </c>
       <c r="N5">
-        <v>16.55626744750818</v>
+        <v>17.59611103288947</v>
       </c>
       <c r="O5">
-        <v>20.81549168991383</v>
+        <v>22.03581932440694</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.58924273082524</v>
+        <v>6.425558503364553</v>
       </c>
       <c r="D6">
-        <v>3.3673295359432</v>
+        <v>1.663903188408911</v>
       </c>
       <c r="E6">
-        <v>9.012865181796972</v>
+        <v>4.727780623145756</v>
       </c>
       <c r="F6">
-        <v>23.89808037637872</v>
+        <v>27.72891676882962</v>
       </c>
       <c r="G6">
-        <v>3.588720881570408</v>
+        <v>2.011405012639714</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.25574791891564</v>
+        <v>27.4618765003902</v>
       </c>
       <c r="N6">
-        <v>16.5449416363036</v>
+        <v>17.56057745553716</v>
       </c>
       <c r="O6">
-        <v>20.80129417244232</v>
+        <v>21.96518036389104</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.640646325130064</v>
+        <v>6.59274458427072</v>
       </c>
       <c r="D7">
-        <v>3.360857507455952</v>
+        <v>1.647978649831639</v>
       </c>
       <c r="E7">
-        <v>8.971129511177223</v>
+        <v>4.617867203583982</v>
       </c>
       <c r="F7">
-        <v>24.05667321719629</v>
+        <v>28.38080575207492</v>
       </c>
       <c r="G7">
-        <v>3.587556269775494</v>
+        <v>2.008328472870473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.50907221858401</v>
+        <v>28.1294423376505</v>
       </c>
       <c r="N7">
-        <v>16.62358235925451</v>
+        <v>17.8060032270905</v>
       </c>
       <c r="O7">
-        <v>20.90036942964564</v>
+        <v>22.45321637583698</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.864373286270354</v>
+        <v>7.293937087871304</v>
       </c>
       <c r="D8">
-        <v>3.333752470547201</v>
+        <v>1.742696447025259</v>
       </c>
       <c r="E8">
-        <v>8.796307698749843</v>
+        <v>4.150772065178302</v>
       </c>
       <c r="F8">
-        <v>24.76539151583983</v>
+        <v>31.3112265151084</v>
       </c>
       <c r="G8">
-        <v>3.582679909309753</v>
+        <v>1.995081341606742</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.59249661801706</v>
+        <v>30.91430258383369</v>
       </c>
       <c r="N8">
-        <v>16.97069899346909</v>
+        <v>18.85694286077999</v>
       </c>
       <c r="O8">
-        <v>21.34981182759828</v>
+        <v>24.72048490641574</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.287068537060975</v>
+        <v>8.542595547494077</v>
       </c>
       <c r="D9">
-        <v>3.285833080627553</v>
+        <v>1.975419276825453</v>
       </c>
       <c r="E9">
-        <v>8.486952832591786</v>
+        <v>3.317240508972616</v>
       </c>
       <c r="F9">
-        <v>26.17229399228508</v>
+        <v>36.77439890761099</v>
       </c>
       <c r="G9">
-        <v>3.574054171520328</v>
+        <v>1.970096785990855</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.57515156245204</v>
+        <v>35.80933354289525</v>
       </c>
       <c r="N9">
-        <v>17.64632261078205</v>
+        <v>20.7868494340946</v>
       </c>
       <c r="O9">
-        <v>22.2669624081239</v>
+        <v>29.10703460447575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.584108049579077</v>
+        <v>9.388228360623584</v>
       </c>
       <c r="D10">
-        <v>3.253823091448774</v>
+        <v>2.147556340358987</v>
       </c>
       <c r="E10">
-        <v>8.279962016169357</v>
+        <v>3.655840767796446</v>
       </c>
       <c r="F10">
-        <v>27.20366595108185</v>
+        <v>40.5308468112312</v>
       </c>
       <c r="G10">
-        <v>3.568280541649275</v>
+        <v>1.952140093981917</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.93209953186527</v>
+        <v>39.07438091656608</v>
       </c>
       <c r="N10">
-        <v>18.13496054904957</v>
+        <v>22.11413561101068</v>
       </c>
       <c r="O10">
-        <v>22.95518143215308</v>
+        <v>32.11928593657959</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.715643859614623</v>
+        <v>9.758669688034935</v>
       </c>
       <c r="D11">
-        <v>3.239956864352696</v>
+        <v>2.226796226827428</v>
       </c>
       <c r="E11">
-        <v>8.190183065988844</v>
+        <v>3.920850262672616</v>
       </c>
       <c r="F11">
-        <v>27.66985505873715</v>
+        <v>42.18948306170262</v>
       </c>
       <c r="G11">
-        <v>3.565774789600365</v>
+        <v>1.9440045491976</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.52555840626952</v>
+        <v>40.49132942343107</v>
       </c>
       <c r="N11">
-        <v>18.35463967436858</v>
+        <v>22.69663248351682</v>
       </c>
       <c r="O11">
-        <v>23.26983916788005</v>
+        <v>33.4489254844957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.764890180093126</v>
+        <v>9.897022707752672</v>
       </c>
       <c r="D12">
-        <v>3.234806312522133</v>
+        <v>2.257004843412377</v>
       </c>
       <c r="E12">
-        <v>8.156815276863611</v>
+        <v>4.023149192527079</v>
       </c>
       <c r="F12">
-        <v>27.84576475718588</v>
+        <v>42.8109246286521</v>
       </c>
       <c r="G12">
-        <v>3.564843161413361</v>
+        <v>1.940923420727243</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.74671023355439</v>
+        <v>41.01840045791216</v>
       </c>
       <c r="N12">
-        <v>18.43737818482674</v>
+        <v>22.914046308061</v>
       </c>
       <c r="O12">
-        <v>23.38909365455001</v>
+        <v>33.94707930913798</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.754309856566763</v>
+        <v>9.867309410157239</v>
       </c>
       <c r="D13">
-        <v>3.23591111040286</v>
+        <v>2.250488681736119</v>
       </c>
       <c r="E13">
-        <v>8.163973634442304</v>
+        <v>4.001030373931171</v>
       </c>
       <c r="F13">
-        <v>27.80791029400731</v>
+        <v>42.67737160372747</v>
       </c>
       <c r="G13">
-        <v>3.56504303896632</v>
+        <v>1.941587102932</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.69924256220701</v>
+        <v>40.90530291892235</v>
       </c>
       <c r="N13">
-        <v>18.41958009561763</v>
+        <v>22.86736450184511</v>
       </c>
       <c r="O13">
-        <v>23.36340758192678</v>
+        <v>33.84002230151747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.719706927171397</v>
+        <v>9.770089898543606</v>
       </c>
       <c r="D14">
-        <v>3.239531113553962</v>
+        <v>2.229277026406603</v>
       </c>
       <c r="E14">
-        <v>8.187425263244789</v>
+        <v>3.929227351933764</v>
       </c>
       <c r="F14">
-        <v>27.68434088278017</v>
+        <v>42.24073905291775</v>
       </c>
       <c r="G14">
-        <v>3.56569779899317</v>
+        <v>1.94375110234446</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.54382520607841</v>
+        <v>40.53488015474709</v>
       </c>
       <c r="N14">
-        <v>18.36145603916783</v>
+        <v>22.71458318674519</v>
       </c>
       <c r="O14">
-        <v>23.27964900756531</v>
+        <v>33.49001305478685</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.698436949664943</v>
+        <v>9.710293338877412</v>
       </c>
       <c r="D15">
-        <v>3.241761540142583</v>
+        <v>2.216312813425536</v>
       </c>
       <c r="E15">
-        <v>8.20187203589205</v>
+        <v>3.885499760767962</v>
       </c>
       <c r="F15">
-        <v>27.60856390692091</v>
+        <v>41.97244183411936</v>
       </c>
       <c r="G15">
-        <v>3.566101101032035</v>
+        <v>1.945076401335491</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.4481574621794</v>
+        <v>40.30675931347456</v>
       </c>
       <c r="N15">
-        <v>18.32579272121686</v>
+        <v>22.62058538828634</v>
       </c>
       <c r="O15">
-        <v>23.22835383517489</v>
+        <v>33.27494128325175</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.575435477523632</v>
+        <v>9.363742744529983</v>
       </c>
       <c r="D16">
-        <v>3.254743298194216</v>
+        <v>2.142402174154183</v>
       </c>
       <c r="E16">
-        <v>8.285917404920358</v>
+        <v>3.638793969171904</v>
       </c>
       <c r="F16">
-        <v>27.17312221486571</v>
+        <v>40.42148751986362</v>
       </c>
       <c r="G16">
-        <v>3.568446717761859</v>
+        <v>1.952672013668062</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.89282266786815</v>
+        <v>38.98043214409588</v>
       </c>
       <c r="N16">
-        <v>18.12054512640285</v>
+        <v>22.07563021328216</v>
       </c>
       <c r="O16">
-        <v>22.93463870080513</v>
+        <v>32.0316133636559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.499023316266598</v>
+        <v>9.14758053288551</v>
       </c>
       <c r="D17">
-        <v>3.26288547060069</v>
+        <v>2.097344501836128</v>
       </c>
       <c r="E17">
-        <v>8.338598388413713</v>
+        <v>3.490924243850563</v>
       </c>
       <c r="F17">
-        <v>26.90508412570264</v>
+        <v>39.4575470183795</v>
       </c>
       <c r="G17">
-        <v>3.569916513044552</v>
+        <v>1.957336708468912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.54592531744336</v>
+        <v>38.14949241948657</v>
       </c>
       <c r="N17">
-        <v>17.9939110227926</v>
+        <v>21.73578288407262</v>
       </c>
       <c r="O17">
-        <v>22.75476773737103</v>
+        <v>31.25878839905281</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.45473770420876</v>
+        <v>9.02190114158315</v>
       </c>
       <c r="D18">
-        <v>3.267634055026033</v>
+        <v>2.071511751683917</v>
       </c>
       <c r="E18">
-        <v>8.369311591124001</v>
+        <v>3.407168119586472</v>
       </c>
       <c r="F18">
-        <v>26.75064553930326</v>
+        <v>38.89835004815055</v>
       </c>
       <c r="G18">
-        <v>3.570773267990816</v>
+        <v>1.960023173107606</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.34416433241208</v>
+        <v>37.66510347957983</v>
       </c>
       <c r="N18">
-        <v>17.92083351673876</v>
+        <v>21.53831206611464</v>
       </c>
       <c r="O18">
-        <v>22.65146714724971</v>
+        <v>30.81042003999242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.439687296017383</v>
+        <v>8.979113126765153</v>
       </c>
       <c r="D19">
-        <v>3.269253071662977</v>
+        <v>2.062777628584263</v>
       </c>
       <c r="E19">
-        <v>8.379781422957096</v>
+        <v>3.379034776541868</v>
       </c>
       <c r="F19">
-        <v>26.69831507159816</v>
+        <v>38.70818158305172</v>
       </c>
       <c r="G19">
-        <v>3.571065306271089</v>
+        <v>1.96093350230896</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.27547271417537</v>
+        <v>37.49997977160362</v>
       </c>
       <c r="N19">
-        <v>17.89605168263021</v>
+        <v>21.47111196261024</v>
       </c>
       <c r="O19">
-        <v>22.61652215257937</v>
+        <v>30.65793346583162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.507192590707076</v>
+        <v>9.170730101497293</v>
       </c>
       <c r="D20">
-        <v>3.262011949391737</v>
+        <v>2.102131896920963</v>
       </c>
       <c r="E20">
-        <v>8.33294772147001</v>
+        <v>3.50653181053514</v>
       </c>
       <c r="F20">
-        <v>26.93364666113877</v>
+        <v>39.56064935966673</v>
       </c>
       <c r="G20">
-        <v>3.569758875132297</v>
+        <v>1.956839821005563</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.58308560124723</v>
+        <v>38.23861311730126</v>
       </c>
       <c r="N20">
-        <v>18.00741692543636</v>
+        <v>21.77216799324932</v>
       </c>
       <c r="O20">
-        <v>22.77390005339346</v>
+        <v>31.34145308533294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.729886287031597</v>
+        <v>9.798696818201751</v>
       </c>
       <c r="D21">
-        <v>3.238465106470256</v>
+        <v>2.235501318944769</v>
       </c>
       <c r="E21">
-        <v>8.180519868990237</v>
+        <v>3.950264679344274</v>
       </c>
       <c r="F21">
-        <v>27.7206547080035</v>
+        <v>42.36916400925143</v>
       </c>
       <c r="G21">
-        <v>3.565505012939786</v>
+        <v>1.943115537865893</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.58957326593314</v>
+        <v>40.64393718759082</v>
       </c>
       <c r="N21">
-        <v>18.37854125216744</v>
+        <v>22.75954536290325</v>
       </c>
       <c r="O21">
-        <v>23.30424919899766</v>
+        <v>33.59296018329503</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.872127309625846</v>
+        <v>10.19795694489201</v>
       </c>
       <c r="D22">
-        <v>3.223660604646647</v>
+        <v>2.323884537527602</v>
       </c>
       <c r="E22">
-        <v>8.084568882567913</v>
+        <v>4.251657770252169</v>
       </c>
       <c r="F22">
-        <v>28.23127887105126</v>
+        <v>44.16627930040779</v>
       </c>
       <c r="G22">
-        <v>3.562825338184008</v>
+        <v>1.934140817762491</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.22645927650823</v>
+        <v>42.16078790917519</v>
       </c>
       <c r="N22">
-        <v>18.61844204830768</v>
+        <v>23.386374098022</v>
       </c>
       <c r="O22">
-        <v>23.65139250205851</v>
+        <v>35.03354277985888</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.796526943804531</v>
+        <v>9.985840110456186</v>
       </c>
       <c r="D23">
-        <v>3.231508432570576</v>
+        <v>2.276575757116726</v>
       </c>
       <c r="E23">
-        <v>8.13544410329083</v>
+        <v>4.089745199234392</v>
       </c>
       <c r="F23">
-        <v>27.95915222357322</v>
+        <v>43.21042497540842</v>
       </c>
       <c r="G23">
-        <v>3.564246374570586</v>
+        <v>1.938933151387638</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.8884993883563</v>
+        <v>41.35614316420357</v>
       </c>
       <c r="N23">
-        <v>18.49066872758026</v>
+        <v>23.05354248970746</v>
       </c>
       <c r="O23">
-        <v>23.46610806669791</v>
+        <v>34.26732091080702</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.503500364580911</v>
+        <v>9.160268566409425</v>
       </c>
       <c r="D24">
-        <v>3.26240665797808</v>
+        <v>2.099967297845506</v>
       </c>
       <c r="E24">
-        <v>8.335501060416792</v>
+        <v>3.499471712993955</v>
       </c>
       <c r="F24">
-        <v>26.92073458259719</v>
+        <v>39.51405245268411</v>
       </c>
       <c r="G24">
-        <v>3.569830106624885</v>
+        <v>1.957064448906189</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.56629266724369</v>
+        <v>38.19834245168891</v>
       </c>
       <c r="N24">
-        <v>18.00131175420331</v>
+        <v>21.75572478112593</v>
       </c>
       <c r="O24">
-        <v>22.76524998216817</v>
+        <v>31.30409306601268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.174846434913434</v>
+        <v>8.217813626874246</v>
       </c>
       <c r="D25">
-        <v>3.298235770534069</v>
+        <v>1.912461525427976</v>
       </c>
       <c r="E25">
-        <v>8.567070669922046</v>
+        <v>3.531229950681645</v>
       </c>
       <c r="F25">
-        <v>25.79120194233849</v>
+        <v>35.34328137155962</v>
       </c>
       <c r="G25">
-        <v>3.576288138004472</v>
+        <v>1.976769284557992</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.05546454450358</v>
+        <v>34.54437471108395</v>
       </c>
       <c r="N25">
-        <v>17.46458122984708</v>
+        <v>20.28001741974054</v>
       </c>
       <c r="O25">
-        <v>22.01578643946419</v>
+        <v>27.95882022300528</v>
       </c>
     </row>
   </sheetData>
